--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/01022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/01022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domingo, 1 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Mateo
-Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
-*Oración de la mañana*
-Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
-Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
-Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
-En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>domingo, 1 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 5, 1-12a En aquel tiempo, cuando Jesús vio a la muchedumbre, subió al monte y se sentó. Entonces se le acercaron sus discípulos. Enseguida comenzó a enseñarles, hablándoles así: "Dichosos los pobres de espíritu, porque de ellos es el Reino de los cielos. Dichosos los que lloran, porque serán consolados. Dichosos los sufridos, porque heredarán la tierra. Dichosos los que tienen hambre y sed de justicia, porque serán saciados. Dichosos los misericordiosos, porque obtendrán misericordia. Dichosos los limpios de corazón, porque verán a Dios. Dichosos los que trabajan por la paz, porque se les llamará hijos de Dios. Dichosos los perseguidos por causa de la justicia, porque de ellos es el Reino de los cielos. Dichosos serán ustedes cuando los injurien, los persigan y digan cosas falsas de ustedes por causa mía. Alégrense y salten de contento, porque su premio será grande en los cielos".
+*Oración de la mañana*
+Querido Jesús, que te sentaste en la montaña para enseñar a tus discípulos, ayúdame a ser pobre de espíritu, a mantenerme humilde y a reconocer mi necesidad de ti. Ayúdame a buscar la justicia, a ser misericordioso, y a mantener mi corazón limpio para poder verte en mi vida diaria. Dame la fortaleza para soportar las persecuciones y las mentiras por tu causa, y llenar mi corazón de gozo en medio de las pruebas.
+Amado Padre, gracias por este nuevo día, por cada amanecer que trae nuevas oportunidades de crecimiento y conversión. Ayúdame a heredar la tierra a través de mi sufrimiento, a trabajar por la paz en mi entorno y a encontrar consuelo en mis momentos de dolor. Fortalece mi fe y mi esperanza en tu Reino.
+Dulce Espíritu Santo, te pido que ilumines mi camino y guíes mis decisiones. Que tu presencia me inspire a ser un verdadero hijo de Dios, a buscar la verdad y a vivir de acuerdo con las bienaventuranzas que Jesús nos ha enseñado. Que tu amor y tu paz llenen mi corazón y se reflejen en mis acciones.
+En la Trinidad Santa confío y me entrego en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>